--- a/biology/Histoire de la zoologie et de la botanique/Theodoric_Valeton/Theodoric_Valeton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Theodoric_Valeton/Theodoric_Valeton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theodoric Valeton est un botaniste néerlandais, né en 1855 à Groningue et mort en 1929 à La Haye.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l’Université de Groningue où il obtient son doctorat en 1886. Trois ans plus tard, il part à Java comme bactériologiste à la Station expérimentale sucrière de Pasoeroean. Il entre en 1893 au Jardin botanique de Buitenzorg. Il y dirige l’herbier de 1903 à 1913, date de son départ à la retraite. Il séjourne à Buitenzorg de 1916 à 1919 pour y étudier les Zingiberaceae. Outre de nombreuses publications taxinomique, Valeton participe à la rédaction de Bijdragen tot de kennis der Boomsoorten op Java basé sur des spécimens récoltés par Sijfert Hendrik Koorders (es).
 </t>
@@ -542,7 +556,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elias Magloire Durand lui dédie le genre Valentonia de la famille des Icacinaceae.
 </t>
